--- a/biology/Médecine/Gerbrand_Bakker_(médecin)/Gerbrand_Bakker_(médecin).xlsx
+++ b/biology/Médecine/Gerbrand_Bakker_(médecin)/Gerbrand_Bakker_(médecin).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gerbrand_Bakker_(m%C3%A9decin)</t>
+          <t>Gerbrand_Bakker_(médecin)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gerbrand Bakker est un médecin hollandais. Né à Enkhuizen le 1er novembre 1771, il est décédé le 1er juin 1828 à Groningue.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gerbrand_Bakker_(m%C3%A9decin)</t>
+          <t>Gerbrand_Bakker_(médecin)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Professeur d'anatomie, de physiologie et de chirurgie à l'université de Groningue à partir de 1811, il a laissé plusieurs études qui firent référence au début du XIXe siècle.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Gerbrand_Bakker_(m%C3%A9decin)</t>
+          <t>Gerbrand_Bakker_(médecin)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Oratio inauguralis de iisqui artis obstetriciae utilitatem augere possunt
 Gratum magis acceptumque reddere (1814)
